--- a/input/extension/user-defined-energy/E.US-EIA_inventory_aggsec-instructions.xlsx
+++ b/input/extension/user-defined-energy/E.US-EIA_inventory_aggsec-instructions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="19">
   <si>
     <t>iso</t>
   </si>
@@ -39,22 +39,7 @@
     <t>priority</t>
   </si>
   <si>
-    <t>L1_agg_fuel</t>
-  </si>
-  <si>
-    <t>L2_CEDS_fuel</t>
-  </si>
-  <si>
-    <t>L3_agg_sector</t>
-  </si>
-  <si>
-    <t>L4_CEDS_sector</t>
-  </si>
-  <si>
     <t>override_normalization</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>usa</t>
@@ -411,23 +396,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -441,188 +426,152 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>1949</v>
+      </c>
+      <c r="E2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>1949</v>
+      </c>
+      <c r="E3">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>1949</v>
+      </c>
+      <c r="E4">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>1949</v>
+      </c>
+      <c r="E5">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2">
-        <v>1949</v>
-      </c>
-      <c r="E2">
-        <v>2016</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="D6">
+        <v>1949</v>
+      </c>
+      <c r="E6">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>1949</v>
+      </c>
+      <c r="E7">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>1949</v>
-      </c>
-      <c r="E3">
-        <v>2016</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>1949</v>
-      </c>
-      <c r="E4">
-        <v>2016</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>1949</v>
-      </c>
-      <c r="E5">
-        <v>2016</v>
-      </c>
-      <c r="I5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D8">
+        <v>1949</v>
+      </c>
+      <c r="E8">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>1949</v>
+      </c>
+      <c r="E9">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
-      </c>
-      <c r="D6">
-        <v>1949</v>
-      </c>
-      <c r="E6">
-        <v>2016</v>
-      </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>1949</v>
-      </c>
-      <c r="E7">
-        <v>2016</v>
-      </c>
-      <c r="I7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>1949</v>
-      </c>
-      <c r="E8">
-        <v>2016</v>
-      </c>
-      <c r="I8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>1949</v>
-      </c>
-      <c r="E9">
-        <v>2016</v>
-      </c>
-      <c r="I9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
       </c>
       <c r="D10">
         <v>1981</v>
@@ -630,39 +579,33 @@
       <c r="E10">
         <v>2016</v>
       </c>
-      <c r="I10" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>1949</v>
+      </c>
+      <c r="E11">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11">
-        <v>1949</v>
-      </c>
-      <c r="E11">
-        <v>2016</v>
-      </c>
-      <c r="I11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>1950</v>
@@ -670,28 +613,22 @@
       <c r="E12">
         <v>2016</v>
       </c>
-      <c r="I12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D13">
         <v>1949</v>
       </c>
       <c r="E13">
         <v>2016</v>
-      </c>
-      <c r="I13" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -714,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -726,24 +663,24 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>1949</v>
@@ -752,18 +689,18 @@
         <v>2016</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>1949</v>
@@ -772,18 +709,18 @@
         <v>2016</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>1949</v>
@@ -792,18 +729,18 @@
         <v>2016</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>1949</v>
@@ -812,19 +749,19 @@
         <v>2016</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
       <c r="D6">
         <v>1949</v>
       </c>
@@ -832,18 +769,18 @@
         <v>2016</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>1949</v>
@@ -852,18 +789,18 @@
         <v>2016</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>1949</v>
@@ -872,18 +809,18 @@
         <v>2016</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>1949</v>
@@ -892,18 +829,18 @@
         <v>2016</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>1981</v>
@@ -912,18 +849,18 @@
         <v>2016</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>1949</v>
@@ -932,18 +869,18 @@
         <v>2016</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>1950</v>
@@ -952,18 +889,18 @@
         <v>2016</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D13">
         <v>1949</v>
@@ -972,7 +909,7 @@
         <v>2016</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
